--- a/xlsx/country_comparison/support_binary_positive.xlsx
+++ b/xlsx/country_comparison/support_binary_positive.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -32,16 +32,13 @@
     <t xml:space="preserve">United States</t>
   </si>
   <si>
-    <t xml:space="preserve">Global climate scheme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">National redistribution scheme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Support for C+G+R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sharing half of global tax with low-income</t>
+    <t xml:space="preserve">Global climate scheme (GCS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National redistribution scheme (NR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coal exit + GCS + NR</t>
   </si>
 </sst>
 </file>
@@ -398,19 +395,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>0.626865671641791</v>
+        <v>0.76056338028169</v>
       </c>
       <c r="C2" t="n">
-        <v>0.709677419354839</v>
+        <v>0.723756906077348</v>
       </c>
       <c r="D2" t="n">
-        <v>0.793103448275862</v>
+        <v>0.819672131147541</v>
       </c>
       <c r="E2" t="n">
-        <v>0.647058823529412</v>
+        <v>0.760869565217391</v>
       </c>
       <c r="F2" t="n">
-        <v>0.494186046511628</v>
+        <v>0.534423735260555</v>
       </c>
     </row>
     <row r="3">
@@ -418,19 +415,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.671641791044776</v>
+        <v>0.697183098591549</v>
       </c>
       <c r="C3" t="n">
-        <v>0.709677419354839</v>
+        <v>0.651933701657459</v>
       </c>
       <c r="D3" t="n">
-        <v>0.827586206896552</v>
+        <v>0.778688524590164</v>
       </c>
       <c r="E3" t="n">
-        <v>0.691176470588235</v>
+        <v>0.695652173913043</v>
       </c>
       <c r="F3" t="n">
-        <v>0.529069767441861</v>
+        <v>0.552301255230126</v>
       </c>
     </row>
     <row r="4">
@@ -438,39 +435,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.597014925373134</v>
+        <v>0.78169014084507</v>
       </c>
       <c r="C4" t="n">
-        <v>0.645161290322581</v>
+        <v>0.69060773480663</v>
       </c>
       <c r="D4" t="n">
-        <v>0.689655172413793</v>
+        <v>0.844262295081967</v>
       </c>
       <c r="E4" t="n">
-        <v>0.632352941176471</v>
+        <v>0.739130434782609</v>
       </c>
       <c r="F4" t="n">
-        <v>0.546511627906977</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.294117647058824</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.625</v>
+        <v>0.521491061240015</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/support_binary_positive.xlsx
+++ b/xlsx/country_comparison/support_binary_positive.xlsx
@@ -395,19 +395,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>0.76056338028169</v>
+        <v>0.787096774193548</v>
       </c>
       <c r="C2" t="n">
-        <v>0.723756906077348</v>
+        <v>0.71334214002642</v>
       </c>
       <c r="D2" t="n">
-        <v>0.819672131147541</v>
+        <v>0.821362799263352</v>
       </c>
       <c r="E2" t="n">
-        <v>0.760869565217391</v>
+        <v>0.725155279503106</v>
       </c>
       <c r="F2" t="n">
-        <v>0.534423735260555</v>
+        <v>0.53424139235717</v>
       </c>
     </row>
     <row r="3">
@@ -415,19 +415,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.697183098591549</v>
+        <v>0.75</v>
       </c>
       <c r="C3" t="n">
-        <v>0.651933701657459</v>
+        <v>0.667107001321004</v>
       </c>
       <c r="D3" t="n">
-        <v>0.778688524590164</v>
+        <v>0.801104972375691</v>
       </c>
       <c r="E3" t="n">
-        <v>0.695652173913043</v>
+        <v>0.740683229813665</v>
       </c>
       <c r="F3" t="n">
-        <v>0.552301255230126</v>
+        <v>0.552402572833901</v>
       </c>
     </row>
     <row r="4">
@@ -435,19 +435,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.78169014084507</v>
+        <v>0.783870967741935</v>
       </c>
       <c r="C4" t="n">
-        <v>0.69060773480663</v>
+        <v>0.690885072655218</v>
       </c>
       <c r="D4" t="n">
-        <v>0.844262295081967</v>
+        <v>0.815837937384899</v>
       </c>
       <c r="E4" t="n">
-        <v>0.739130434782609</v>
+        <v>0.680124223602484</v>
       </c>
       <c r="F4" t="n">
-        <v>0.521491061240015</v>
+        <v>0.52099886492622</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/support_binary_positive.xlsx
+++ b/xlsx/country_comparison/support_binary_positive.xlsx
@@ -12,11 +12,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe</t>
+  </si>
+  <si>
     <t xml:space="preserve">France</t>
   </si>
   <si>
@@ -29,16 +35,13 @@
     <t xml:space="preserve">United Kingdom</t>
   </si>
   <si>
-    <t xml:space="preserve">United States</t>
-  </si>
-  <si>
     <t xml:space="preserve">Global climate scheme (GCS)</t>
   </si>
   <si>
     <t xml:space="preserve">National redistribution scheme (NR)</t>
   </si>
   <si>
-    <t xml:space="preserve">Coal exit + GCS + NR</t>
+    <t xml:space="preserve">National climate policy + GCS + NR</t>
   </si>
 </sst>
 </file>
@@ -389,65 +392,77 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.787096774193548</v>
+        <v>0.533050523673449</v>
       </c>
       <c r="C2" t="n">
-        <v>0.71334214002642</v>
+        <v>0.752698343735098</v>
       </c>
       <c r="D2" t="n">
-        <v>0.821362799263352</v>
+        <v>0.805398319468679</v>
       </c>
       <c r="E2" t="n">
-        <v>0.725155279503106</v>
+        <v>0.708750845625959</v>
       </c>
       <c r="F2" t="n">
-        <v>0.53424139235717</v>
+        <v>0.813439832560037</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.745700372884844</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.75</v>
+        <v>0.543655064678521</v>
       </c>
       <c r="C3" t="n">
-        <v>0.667107001321004</v>
+        <v>0.724413635192711</v>
       </c>
       <c r="D3" t="n">
-        <v>0.801104972375691</v>
+        <v>0.767123422555058</v>
       </c>
       <c r="E3" t="n">
-        <v>0.740683229813665</v>
+        <v>0.661684892722312</v>
       </c>
       <c r="F3" t="n">
-        <v>0.552402572833901</v>
+        <v>0.80196078442816</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.7516505366876</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.783870967741935</v>
+        <v>0.514239052709087</v>
       </c>
       <c r="C4" t="n">
-        <v>0.690885072655218</v>
+        <v>0.731994659198824</v>
       </c>
       <c r="D4" t="n">
-        <v>0.815837937384899</v>
+        <v>0.798678512799643</v>
       </c>
       <c r="E4" t="n">
-        <v>0.680124223602484</v>
+        <v>0.685695391404446</v>
       </c>
       <c r="F4" t="n">
-        <v>0.52099886492622</v>
+        <v>0.80856978466422</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.706843610538689</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/support_binary_positive.xlsx
+++ b/xlsx/country_comparison/support_binary_positive.xlsx
@@ -401,22 +401,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.533050523673449</v>
+        <v>0.541940293813814</v>
       </c>
       <c r="C2" t="n">
-        <v>0.752698343735098</v>
+        <v>0.757124442969868</v>
       </c>
       <c r="D2" t="n">
-        <v>0.805398319468679</v>
+        <v>0.80287801319803</v>
       </c>
       <c r="E2" t="n">
-        <v>0.708750845625959</v>
+        <v>0.71266432814077</v>
       </c>
       <c r="F2" t="n">
-        <v>0.813439832560037</v>
+        <v>0.814181202537546</v>
       </c>
       <c r="G2" t="n">
-        <v>0.745700372884844</v>
+        <v>0.741093867939918</v>
       </c>
     </row>
     <row r="3">
@@ -424,22 +424,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.543655064678521</v>
+        <v>0.558336087713609</v>
       </c>
       <c r="C3" t="n">
-        <v>0.724413635192711</v>
+        <v>0.72449033939416</v>
       </c>
       <c r="D3" t="n">
-        <v>0.767123422555058</v>
+        <v>0.768838719029281</v>
       </c>
       <c r="E3" t="n">
-        <v>0.661684892722312</v>
+        <v>0.658433214287983</v>
       </c>
       <c r="F3" t="n">
-        <v>0.80196078442816</v>
+        <v>0.79892524528987</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7516505366876</v>
+        <v>0.749406163217863</v>
       </c>
     </row>
     <row r="4">
@@ -447,22 +447,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.514239052709087</v>
+        <v>0.524831536121547</v>
       </c>
       <c r="C4" t="n">
-        <v>0.731994659198824</v>
+        <v>0.734354280876327</v>
       </c>
       <c r="D4" t="n">
-        <v>0.798678512799643</v>
+        <v>0.78880716153296</v>
       </c>
       <c r="E4" t="n">
-        <v>0.685695391404446</v>
+        <v>0.690508694213523</v>
       </c>
       <c r="F4" t="n">
-        <v>0.80856978466422</v>
+        <v>0.808274946990806</v>
       </c>
       <c r="G4" t="n">
-        <v>0.706843610538689</v>
+        <v>0.70345279498556</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/support_binary_positive.xlsx
+++ b/xlsx/country_comparison/support_binary_positive.xlsx
@@ -401,22 +401,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.541940293813814</v>
+        <v>0.527972736493319</v>
       </c>
       <c r="C2" t="n">
-        <v>0.757124442969868</v>
+        <v>0.757320866764204</v>
       </c>
       <c r="D2" t="n">
-        <v>0.80287801319803</v>
+        <v>0.802845995450502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.71266432814077</v>
+        <v>0.712681465751731</v>
       </c>
       <c r="F2" t="n">
-        <v>0.814181202537546</v>
+        <v>0.809917713113721</v>
       </c>
       <c r="G2" t="n">
-        <v>0.741093867939918</v>
+        <v>0.74106127773703</v>
       </c>
     </row>
     <row r="3">
@@ -424,22 +424,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.558336087713609</v>
+        <v>0.557518324399071</v>
       </c>
       <c r="C3" t="n">
-        <v>0.72449033939416</v>
+        <v>0.726238536290562</v>
       </c>
       <c r="D3" t="n">
-        <v>0.768838719029281</v>
+        <v>0.768794438370656</v>
       </c>
       <c r="E3" t="n">
-        <v>0.658433214287983</v>
+        <v>0.658435932985819</v>
       </c>
       <c r="F3" t="n">
-        <v>0.79892524528987</v>
+        <v>0.787745433104858</v>
       </c>
       <c r="G3" t="n">
-        <v>0.749406163217863</v>
+        <v>0.749378737165197</v>
       </c>
     </row>
     <row r="4">
@@ -447,22 +447,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.524831536121547</v>
+        <v>0.524870121220232</v>
       </c>
       <c r="C4" t="n">
-        <v>0.734354280876327</v>
+        <v>0.735027761278094</v>
       </c>
       <c r="D4" t="n">
-        <v>0.78880716153296</v>
+        <v>0.788770385854295</v>
       </c>
       <c r="E4" t="n">
-        <v>0.690508694213523</v>
+        <v>0.690510975064862</v>
       </c>
       <c r="F4" t="n">
-        <v>0.808274946990806</v>
+        <v>0.808592285414348</v>
       </c>
       <c r="G4" t="n">
-        <v>0.70345279498556</v>
+        <v>0.703443018587396</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/support_binary_positive.xlsx
+++ b/xlsx/country_comparison/support_binary_positive.xlsx
@@ -401,7 +401,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.527972736493319</v>
+        <v>0.542040008566919</v>
       </c>
       <c r="C2" t="n">
         <v>0.757320866764204</v>
@@ -424,7 +424,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.557518324399071</v>
+        <v>0.558431322893747</v>
       </c>
       <c r="C3" t="n">
         <v>0.726238536290562</v>
